--- a/数据整理/stocks/A股/上证主板/603180-金牌厨柜.xlsx
+++ b/数据整理/stocks/A股/上证主板/603180-金牌厨柜.xlsx
@@ -451,99 +451,129 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
         <is>
           <t>基金代码</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C1" s="2" t="inlineStr">
         <is>
           <t>基金名称</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
         <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>164205</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>天弘文化新兴产业股票</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>6.61</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.85</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>8.51</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.5625</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
           <t>008547</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="C3" t="inlineStr">
         <is>
           <t>博道安远6个月定期开放混合</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
         <is>
           <t>21.60</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>1.01</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0055</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>9</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>164205</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>天弘文化新兴产业股票</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>94.85</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>8.51</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>6</v>
-      </c>
-    </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -553,7 +583,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F23"/>
+  <dimension ref="A1:H23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -574,15 +604,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -594,26 +634,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>009849</t>
+          <t>000520</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>安信稳健聚申一年持有期混合</t>
+          <t>上银新兴价值成长混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>36.24</t>
+          <t>5.72</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>0.61</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>10</v>
+          <t>72.69</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.39</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.2511</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -622,25 +672,35 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>004138</t>
+          <t>519673</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>上银鑫达灵活配置混合</t>
+          <t>银河康乐股票</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>74.50</t>
+          <t>5.14</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>4.23</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
+          <t>81.88</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1449</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>7</v>
       </c>
     </row>
@@ -650,26 +710,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>519673</t>
+          <t>010874</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>银河康乐股票</t>
+          <t>泰康品质生活混合A</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>81.88</t>
+          <t>3.81</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>2.82</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>7</v>
+          <t>84.84</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.62</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1379</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="5">
@@ -678,26 +748,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>002588</t>
+          <t>004138</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>博时中证银联智惠大数据100指数A</t>
+          <t>上银鑫达灵活配置混合</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>93.01</t>
+          <t>3.13</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>1.09</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>5</v>
+          <t>74.50</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.23</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1324</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="6">
@@ -706,25 +786,35 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>004416</t>
+          <t>000006</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>博时中证银联智惠大数据100指数C</t>
+          <t>西部利得量化成长混合A</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>93.01</t>
+          <t>13.38</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>1.09</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
+          <t>89.25</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1137</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
         <v>5</v>
       </c>
     </row>
@@ -734,26 +824,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>000547</t>
+          <t>005014</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>建信健康民生混合</t>
+          <t>泰康景泰回报混合A</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>73.81</t>
+          <t>5.89</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>3.82</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>5</v>
+          <t>36.34</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.85</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1090</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="8">
@@ -762,26 +862,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>004249</t>
+          <t>007393</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>安信中国制造2025沪港深灵活配置混合</t>
+          <t>上银未来生活灵活配置混合</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>80.42</t>
+          <t>2.23</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>3.04</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>9</v>
+          <t>69.66</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.79</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0622</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="9">
@@ -790,25 +900,35 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>004393</t>
+          <t>000547</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>安信合作创新主题沪港深灵活配置混合</t>
+          <t>建信健康民生混合</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>76.71</t>
+          <t>1.59</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>3.31</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
+          <t>73.81</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.82</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0607</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
         <v>5</v>
       </c>
     </row>
@@ -818,26 +938,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>007393</t>
+          <t>009899</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>上银未来生活灵活配置混合</t>
+          <t>上银内需增长股票</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>69.66</t>
+          <t>1.25</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>2.79</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
-        <v>8</v>
+          <t>87.26</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.08</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0510</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="11">
@@ -846,26 +976,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>000006</t>
+          <t>010875</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>西部利得量化成长混合A</t>
+          <t>泰康品质生活混合C</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>89.25</t>
+          <t>1.13</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>0.85</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
-        <v>5</v>
+          <t>84.84</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.62</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0409</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="12">
@@ -874,26 +1014,36 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>011228</t>
+          <t>004249</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>西部利得量化成长混合C</t>
+          <t>安信中国制造2025沪港深灵活配置混合</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>89.25</t>
+          <t>0.98</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>0.85</t>
-        </is>
-      </c>
-      <c r="F12" t="n">
-        <v>5</v>
+          <t>80.42</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0298</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="13">
@@ -902,26 +1052,36 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>009899</t>
+          <t>004393</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>上银内需增长股票</t>
+          <t>安信合作创新主题沪港深灵活配置混合</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>87.26</t>
+          <t>0.70</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>4.08</t>
-        </is>
-      </c>
-      <c r="F13" t="n">
-        <v>7</v>
+          <t>76.71</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0232</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="14">
@@ -930,26 +1090,36 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>000520</t>
+          <t>009849</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>上银新兴价值成长混合</t>
+          <t>安信稳健聚申一年持有期混合</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>72.69</t>
+          <t>2.96</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>4.39</t>
-        </is>
-      </c>
-      <c r="F14" t="n">
-        <v>6</v>
+          <t>36.24</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0181</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="15">
@@ -958,25 +1128,35 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>006818</t>
+          <t>005015</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>安信盈利驱动股票A</t>
+          <t>泰康景泰回报混合C</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>82.90</t>
+          <t>0.84</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>3.82</t>
-        </is>
-      </c>
-      <c r="F15" t="n">
+          <t>36.34</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>1.85</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0155</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
         <v>9</v>
       </c>
     </row>
@@ -986,25 +1166,35 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>006819</t>
+          <t>006818</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>安信盈利驱动股票C</t>
+          <t>安信盈利驱动股票A</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
           <t>82.90</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr">
+      <c r="F16" t="inlineStr">
         <is>
           <t>3.82</t>
         </is>
       </c>
-      <c r="F16" t="n">
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0138</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
         <v>9</v>
       </c>
     </row>
@@ -1014,25 +1204,35 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>010874</t>
+          <t>002585</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>泰康品质生活混合A</t>
+          <t>建信兴利灵活配置混合</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>84.84</t>
+          <t>0.52</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>3.62</t>
-        </is>
-      </c>
-      <c r="F17" t="n">
+          <t>57.14</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.09</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0109</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
         <v>9</v>
       </c>
     </row>
@@ -1042,25 +1242,35 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>010875</t>
+          <t>006819</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>泰康品质生活混合C</t>
+          <t>安信盈利驱动股票C</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>84.84</t>
+          <t>0.15</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>3.62</t>
-        </is>
-      </c>
-      <c r="F18" t="n">
+          <t>82.90</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.82</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0057</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
         <v>9</v>
       </c>
     </row>
@@ -1080,15 +1290,25 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
           <t>53.58</t>
         </is>
       </c>
-      <c r="E19" t="inlineStr">
+      <c r="F19" t="inlineStr">
         <is>
           <t>3.23</t>
         </is>
       </c>
-      <c r="F19" t="n">
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0039</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
         <v>7</v>
       </c>
     </row>
@@ -1098,26 +1318,36 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>002035</t>
+          <t>002588</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>安信平稳增长混合C</t>
+          <t>博时中证银联智惠大数据100指数A</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>53.58</t>
+          <t>0.21</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>3.23</t>
-        </is>
-      </c>
-      <c r="F20" t="n">
-        <v>7</v>
+          <t>93.01</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0023</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="21">
@@ -1126,26 +1356,36 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>005014</t>
+          <t>011228</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>泰康景泰回报混合A</t>
+          <t>西部利得量化成长混合C</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>36.34</t>
+          <t>0.27</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>1.85</t>
-        </is>
-      </c>
-      <c r="F21" t="n">
-        <v>9</v>
+          <t>89.25</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0023</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="22">
@@ -1154,26 +1394,36 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>005015</t>
+          <t>002035</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>泰康景泰回报混合C</t>
+          <t>安信平稳增长混合C</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>36.34</t>
+          <t>0.02</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>1.85</t>
-        </is>
-      </c>
-      <c r="F22" t="n">
-        <v>9</v>
+          <t>53.58</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="23">
@@ -1182,26 +1432,36 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>002585</t>
+          <t>004416</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>建信兴利灵活配置混合</t>
+          <t>博时中证银联智惠大数据100指数C</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>57.14</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>2.09</t>
-        </is>
-      </c>
-      <c r="F23" t="n">
-        <v>9</v>
+          <t>93.01</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0001</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/上证主板/603180-金牌厨柜.xlsx
+++ b/数据整理/stocks/A股/上证主板/603180-金牌厨柜.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1467,4 +1468,440 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>000520</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>上银新兴价值成长混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>5.05</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>74.29</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.21</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.2126</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>005535</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>泰信竞争优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.52</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.88</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1566</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>004138</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>上银鑫达灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>70.51</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.72</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1209</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>009796</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>大成汇享一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>4.85</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>23.15</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.48</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0718</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>007393</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>上银未来生活灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2.46</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>62.12</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0701</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>009899</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>上银内需增长股票</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.65</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.31</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0379</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>004393</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>安信合作创新主题沪港深灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>85.47</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0199</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>750005</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>安信平稳增长混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>55.64</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.76</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0045</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>009797</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>大成汇享一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>23.15</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.48</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0025</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>002035</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>安信平稳增长混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>55.64</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.76</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0008</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/603180-金牌厨柜.xlsx
+++ b/数据整理/stocks/A股/上证主板/603180-金牌厨柜.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1904,4 +1905,212 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>005888</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华夏新兴消费混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>15.92</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.24</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.25</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.6766</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>005889</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华夏新兴消费混合C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>6.13</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.24</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.25</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.2605</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>750005</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>安信平稳增长混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>59.55</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.94</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0032</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>002035</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>安信平稳增长混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>59.55</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.94</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/603180-金牌厨柜.xlsx
+++ b/数据整理/stocks/A股/上证主板/603180-金牌厨柜.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2113,4 +2114,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>4</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>10</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>22</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1.23</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>2</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.57</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/603180-金牌厨柜.xlsx
+++ b/数据整理/stocks/A股/上证主板/603180-金牌厨柜.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2122,7 +2123,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2133,17 +2134,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -2153,14 +2174,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>4</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.9399999999999999</v>
+          <t>160311</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华夏蓝筹混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>29.28</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>79.36</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.39</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.9926</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -2169,14 +2212,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>10</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.7</v>
+          <t>005888</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华夏新兴消费混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>16.37</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>90.10</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.50</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.7366</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="4">
@@ -2185,14 +2250,120 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>005889</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华夏新兴消费混合C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>6.20</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>90.10</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.50</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.2790</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>3</v>
+      </c>
+      <c r="D2" t="n">
+        <v>2.01</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>4</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="D4" t="n">
-        <v>1.23</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="5">
@@ -2201,13 +2372,29 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>22</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1.23</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>2</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>0.57</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/603180-金牌厨柜.xlsx
+++ b/数据整理/stocks/A股/上证主板/603180-金牌厨柜.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2293,7 +2294,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2304,17 +2305,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -2324,14 +2345,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>3</v>
-      </c>
-      <c r="D2" t="n">
-        <v>2.01</v>
+          <t>160311</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华夏蓝筹混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>30.12</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>87.73</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.9638</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -2340,14 +2383,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>4</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.9399999999999999</v>
+          <t>005888</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华夏新兴消费混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>16.37</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>91.96</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.43</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.8889</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -2356,14 +2421,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>10</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.7</v>
+          <t>012421</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华夏优加生活混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>8.67</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.98</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.78</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.5011</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -2372,14 +2459,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>22</v>
-      </c>
-      <c r="D5" t="n">
-        <v>1.23</v>
+          <t>001479</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>中邮风格轮动灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>9.45</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>62.17</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.59</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.3393</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="6">
@@ -2388,13 +2497,357 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>005889</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>华夏新兴消费混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>4.25</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>91.96</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.43</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.2308</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>005457</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>景顺长城量化小盘股票</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>9.49</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.39</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.96</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1860</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>012422</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>华夏优加生活混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>92.98</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.78</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0098</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>004641</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>万家量化睿选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>85.90</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0022</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>008437</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>九泰行业优选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>51.13</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.38</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0015</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>008438</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>九泰行业优选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>51.13</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1.38</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0008</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>10</v>
+      </c>
+      <c r="D2" t="n">
+        <v>3.12</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>3</v>
+      </c>
+      <c r="D3" t="n">
+        <v>2.01</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>4</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>10</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>22</v>
+      </c>
+      <c r="D6" t="n">
+        <v>1.23</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>2</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>0.57</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/603180-金牌厨柜.xlsx
+++ b/数据整理/stocks/A股/上证主板/603180-金牌厨柜.xlsx
@@ -12,7 +12,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2730,7 +2731,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2741,17 +2742,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -2761,14 +2782,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>10</v>
-      </c>
-      <c r="D2" t="n">
-        <v>3.12</v>
+          <t>012421</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华夏优加生活混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>9.41</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>91.45</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.87</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.4583</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -2777,14 +2820,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
+          <t>005888</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华夏新兴消费混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>8.87</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>91.07</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.87</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.3433</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>3</v>
-      </c>
-      <c r="D3" t="n">
-        <v>2.01</v>
       </c>
     </row>
     <row r="4">
@@ -2793,14 +2858,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>4</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.9399999999999999</v>
+          <t>005889</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华夏新兴消费混合C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>6.39</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>91.07</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.87</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.2473</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="5">
@@ -2809,14 +2896,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
+          <t>002938</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>中银证券健康产业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.07</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.28</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1224</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
         <v>10</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.7</v>
       </c>
     </row>
     <row r="6">
@@ -2825,14 +2934,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>22</v>
-      </c>
-      <c r="D6" t="n">
-        <v>1.23</v>
+          <t>004189</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>华商消费行业股票</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>82.38</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.59</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0118</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="7">
@@ -2841,13 +2972,259 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>012422</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>华夏优加生活混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>91.45</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.87</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0088</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>004913</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>中银证券聚瑞混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>41.40</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.45</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0036</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>004914</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>中银证券聚瑞混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>41.40</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.45</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0022</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>8</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>10</v>
+      </c>
+      <c r="D3" t="n">
+        <v>3.12</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>3</v>
+      </c>
+      <c r="D4" t="n">
+        <v>2.01</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>4</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>10</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>22</v>
+      </c>
+      <c r="D7" t="n">
+        <v>1.23</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>2</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>0.57</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/603180-金牌厨柜.xlsx
+++ b/数据整理/stocks/A股/上证主板/603180-金牌厨柜.xlsx
@@ -6,14 +6,14 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +457,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -468,37 +468,17 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>基金代码</t>
+          <t>日期</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>基金名称</t>
+          <t>持有数量(只)</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
           <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -508,36 +488,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>164205</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>天弘文化新兴产业股票</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>6.61</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>94.85</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>8.51</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.5625</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>6</v>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>8</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1.2</v>
       </c>
     </row>
     <row r="3">
@@ -546,36 +504,94 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>008547</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>博道安远6个月定期开放混合</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>0.54</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>21.60</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>1.01</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.0055</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>9</v>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>10</v>
+      </c>
+      <c r="D3" t="n">
+        <v>3.12</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>3</v>
+      </c>
+      <c r="D4" t="n">
+        <v>2.01</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>4</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>10</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>22</v>
+      </c>
+      <c r="D7" t="n">
+        <v>1.23</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>2</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.57</v>
       </c>
     </row>
   </sheetData>
@@ -589,7 +605,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H23"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -610,7 +626,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -640,36 +656,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>000520</t>
+          <t>012421</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>上银新兴价值成长混合</t>
+          <t>华夏优加生活混合A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>5.72</t>
+          <t>9.41</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>72.69</t>
+          <t>91.45</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>4.39</t>
+          <t>4.87</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.2511</t>
+          <t>0.4583</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -678,36 +694,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>519673</t>
+          <t>005888</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>银河康乐股票</t>
+          <t>华夏新兴消费混合A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>5.14</t>
+          <t>8.87</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>81.88</t>
+          <t>91.07</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2.82</t>
+          <t>3.87</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.1449</t>
+          <t>0.3433</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4">
@@ -716,36 +732,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>010874</t>
+          <t>005889</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>泰康品质生活混合A</t>
+          <t>华夏新兴消费混合C</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>3.81</t>
+          <t>6.39</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>84.84</t>
+          <t>91.07</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>3.62</t>
+          <t>3.87</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.1379</t>
+          <t>0.2473</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5">
@@ -754,36 +770,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>004138</t>
+          <t>002938</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>上银鑫达灵活配置混合</t>
+          <t>中银证券健康产业灵活配置混合</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>3.13</t>
+          <t>2.86</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>74.50</t>
+          <t>92.07</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>4.23</t>
+          <t>4.28</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.1324</t>
+          <t>0.1224</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6">
@@ -792,36 +808,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>000006</t>
+          <t>004189</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>西部利得量化成长混合A</t>
+          <t>华商消费行业股票</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>13.38</t>
+          <t>0.33</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>89.25</t>
+          <t>82.38</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>0.85</t>
+          <t>3.59</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.1137</t>
+          <t>0.0118</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7">
@@ -830,36 +846,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>005014</t>
+          <t>012422</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>泰康景泰回报混合A</t>
+          <t>华夏优加生活混合C</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>5.89</t>
+          <t>0.18</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>36.34</t>
+          <t>91.45</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>1.85</t>
+          <t>4.87</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.1090</t>
+          <t>0.0088</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8">
@@ -868,36 +884,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>007393</t>
+          <t>004913</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>上银未来生活灵活配置混合</t>
+          <t>中银证券聚瑞混合A</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>2.23</t>
+          <t>0.08</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>69.66</t>
+          <t>41.40</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>2.79</t>
+          <t>4.45</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.0622</t>
+          <t>0.0036</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9">
@@ -906,568 +922,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>000547</t>
+          <t>004914</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>建信健康民生混合</t>
+          <t>中银证券聚瑞混合C</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>1.59</t>
+          <t>0.05</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>73.81</t>
+          <t>41.40</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>3.82</t>
+          <t>4.45</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0.0607</t>
+          <t>0.0022</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>009899</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>上银内需增长股票</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>1.25</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>87.26</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>4.08</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.0510</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>010875</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>泰康品质生活混合C</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>1.13</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>84.84</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>3.62</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0.0409</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>004249</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>安信中国制造2025沪港深灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>0.98</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>80.42</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>3.04</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>0.0298</t>
-        </is>
-      </c>
-      <c r="H12" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>004393</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>安信合作创新主题沪港深灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>0.70</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>76.71</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>3.31</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>0.0232</t>
-        </is>
-      </c>
-      <c r="H13" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>009849</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>安信稳健聚申一年持有期混合</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>2.96</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>36.24</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>0.61</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>0.0181</t>
-        </is>
-      </c>
-      <c r="H14" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="2" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>005015</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>泰康景泰回报混合C</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>0.84</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>36.34</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>1.85</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>0.0155</t>
-        </is>
-      </c>
-      <c r="H15" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="2" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>006818</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>安信盈利驱动股票A</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>0.36</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>82.90</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>3.82</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>0.0138</t>
-        </is>
-      </c>
-      <c r="H16" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>002585</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>建信兴利灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>0.52</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>57.14</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>2.09</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>0.0109</t>
-        </is>
-      </c>
-      <c r="H17" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="2" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>006819</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>安信盈利驱动股票C</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>0.15</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>82.90</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>3.82</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>0.0057</t>
-        </is>
-      </c>
-      <c r="H18" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="2" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>750005</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>安信平稳增长混合A</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>0.12</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>53.58</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>3.23</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>0.0039</t>
-        </is>
-      </c>
-      <c r="H19" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="2" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>002588</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>博时中证银联智惠大数据100指数A</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>0.21</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>93.01</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>1.09</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>0.0023</t>
-        </is>
-      </c>
-      <c r="H20" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="2" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>011228</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>西部利得量化成长混合C</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>0.27</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>89.25</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>0.85</t>
-        </is>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>0.0023</t>
-        </is>
-      </c>
-      <c r="H21" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>002035</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>安信平稳增长混合C</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>0.02</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>53.58</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>3.23</t>
-        </is>
-      </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>0.0006</t>
-        </is>
-      </c>
-      <c r="H22" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="2" t="n">
-        <v>21</v>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>004416</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>博时中证银联智惠大数据100指数C</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>0.01</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>93.01</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>1.09</t>
-        </is>
-      </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>0.0001</t>
-        </is>
-      </c>
-      <c r="H23" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -1502,7 +986,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -1532,36 +1016,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>000520</t>
+          <t>160311</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>上银新兴价值成长混合</t>
+          <t>华夏蓝筹混合(LOF)</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>5.05</t>
+          <t>30.12</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>74.29</t>
+          <t>87.73</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>4.21</t>
+          <t>3.20</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.2126</t>
+          <t>0.9638</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -1570,36 +1054,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>005535</t>
+          <t>005888</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>泰信竞争优选灵活配置混合</t>
+          <t>华夏新兴消费混合A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>3.21</t>
+          <t>16.37</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>92.52</t>
+          <t>91.96</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>4.88</t>
+          <t>5.43</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.1566</t>
+          <t>0.8889</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -1608,36 +1092,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>004138</t>
+          <t>012421</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>上银鑫达灵活配置混合</t>
+          <t>华夏优加生活混合A</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>3.25</t>
+          <t>8.67</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>70.51</t>
+          <t>92.98</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>3.72</t>
+          <t>5.78</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.1209</t>
+          <t>0.5011</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -1646,36 +1130,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>009796</t>
+          <t>001479</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>大成汇享一年持有期混合A</t>
+          <t>中邮风格轮动灵活配置混合</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>4.85</t>
+          <t>9.45</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>23.15</t>
+          <t>62.17</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>1.48</t>
+          <t>3.59</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.0718</t>
+          <t>0.3393</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6">
@@ -1684,36 +1168,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>007393</t>
+          <t>005889</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>上银未来生活灵活配置混合</t>
+          <t>华夏新兴消费混合C</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2.46</t>
+          <t>4.25</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>62.12</t>
+          <t>91.96</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>2.85</t>
+          <t>5.43</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.0701</t>
+          <t>0.2308</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7">
@@ -1722,36 +1206,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>009899</t>
+          <t>005457</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>上银内需增长股票</t>
+          <t>景顺长城量化小盘股票</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>0.88</t>
+          <t>9.49</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>93.65</t>
+          <t>93.39</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>4.31</t>
+          <t>1.96</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.0379</t>
+          <t>0.1860</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8">
@@ -1760,36 +1244,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>004393</t>
+          <t>012422</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>安信合作创新主题沪港深灵活配置混合</t>
+          <t>华夏优加生活混合C</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>0.61</t>
+          <t>0.17</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>85.47</t>
+          <t>92.98</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>3.27</t>
+          <t>5.78</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.0199</t>
+          <t>0.0098</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9">
@@ -1798,36 +1282,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>750005</t>
+          <t>004641</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>安信平稳增长混合A</t>
+          <t>万家量化睿选灵活配置混合</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>0.12</t>
+          <t>0.16</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>55.64</t>
+          <t>85.90</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>3.76</t>
+          <t>1.36</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0.0045</t>
+          <t>0.0022</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10">
@@ -1836,36 +1320,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>009797</t>
+          <t>008437</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>大成汇享一年持有期混合C</t>
+          <t>九泰行业优选灵活配置混合A</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>0.17</t>
+          <t>0.11</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>23.15</t>
+          <t>51.13</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>1.48</t>
+          <t>1.38</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>0.0025</t>
+          <t>0.0015</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11">
@@ -1874,27 +1358,27 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>002035</t>
+          <t>008438</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>安信平稳增长混合C</t>
+          <t>九泰行业优选灵活配置混合C</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>0.02</t>
+          <t>0.06</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>55.64</t>
+          <t>51.13</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>3.76</t>
+          <t>1.38</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
@@ -1903,7 +1387,7 @@
         </is>
       </c>
       <c r="H11" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -1912,6 +1396,176 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>160311</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华夏蓝筹混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>29.28</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>79.36</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.39</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.9926</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>005888</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华夏新兴消费混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>16.37</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>90.10</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.50</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.7366</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>005889</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华夏新兴消费混合C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>6.20</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>90.10</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.50</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.2790</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2112,176 +1766,6 @@
       </c>
       <c r="H5" t="n">
         <v>9</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金规模</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>160311</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>华夏蓝筹混合(LOF)</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>29.28</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>79.36</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>3.39</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.9926</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>005888</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>华夏新兴消费混合A</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>16.37</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>90.10</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>4.50</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.7366</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>005889</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>华夏新兴消费混合C</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>6.20</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>90.10</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>4.50</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.2790</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -2316,7 +1800,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金规模</t>
+          <t>基金金额</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -2346,36 +1830,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>160311</t>
+          <t>000520</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>华夏蓝筹混合(LOF)</t>
+          <t>上银新兴价值成长混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>30.12</t>
+          <t>5.05</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>87.73</t>
+          <t>74.29</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>3.20</t>
+          <t>4.21</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.9638</t>
+          <t>0.2126</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -2384,36 +1868,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>005888</t>
+          <t>005535</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>华夏新兴消费混合A</t>
+          <t>泰信竞争优选灵活配置混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>16.37</t>
+          <t>3.21</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>91.96</t>
+          <t>92.52</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>5.43</t>
+          <t>4.88</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.8889</t>
+          <t>0.1566</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -2422,36 +1906,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>012421</t>
+          <t>004138</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>华夏优加生活混合A</t>
+          <t>上银鑫达灵活配置混合</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>8.67</t>
+          <t>3.25</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>92.98</t>
+          <t>70.51</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>5.78</t>
+          <t>3.72</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.5011</t>
+          <t>0.1209</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5">
@@ -2460,36 +1944,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>001479</t>
+          <t>009796</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>中邮风格轮动灵活配置混合</t>
+          <t>大成汇享一年持有期混合A</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>9.45</t>
+          <t>4.85</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>62.17</t>
+          <t>23.15</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>3.59</t>
+          <t>1.48</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.3393</t>
+          <t>0.0718</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6">
@@ -2498,36 +1982,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>005889</t>
+          <t>007393</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>华夏新兴消费混合C</t>
+          <t>上银未来生活灵活配置混合</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>4.25</t>
+          <t>2.46</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>91.96</t>
+          <t>62.12</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>5.43</t>
+          <t>2.85</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.2308</t>
+          <t>0.0701</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7">
@@ -2536,36 +2020,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>005457</t>
+          <t>009899</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>景顺长城量化小盘股票</t>
+          <t>上银内需增长股票</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>9.49</t>
+          <t>0.88</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>93.39</t>
+          <t>93.65</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>1.96</t>
+          <t>4.31</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.1860</t>
+          <t>0.0379</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8">
@@ -2574,36 +2058,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>012422</t>
+          <t>004393</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>华夏优加生活混合C</t>
+          <t>安信合作创新主题沪港深灵活配置混合</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>0.17</t>
+          <t>0.61</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>92.98</t>
+          <t>85.47</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>5.78</t>
+          <t>3.27</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.0098</t>
+          <t>0.0199</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9">
@@ -2612,36 +2096,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>004641</t>
+          <t>750005</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>万家量化睿选灵活配置混合</t>
+          <t>安信平稳增长混合A</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>0.16</t>
+          <t>0.12</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>85.90</t>
+          <t>55.64</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>1.36</t>
+          <t>3.76</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0.0022</t>
+          <t>0.0045</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10">
@@ -2650,36 +2134,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>008437</t>
+          <t>009797</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>九泰行业优选灵活配置混合A</t>
+          <t>大成汇享一年持有期混合C</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>0.11</t>
+          <t>0.17</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>51.13</t>
+          <t>23.15</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>1.38</t>
+          <t>1.48</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>0.0015</t>
+          <t>0.0025</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11">
@@ -2688,27 +2172,27 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>008438</t>
+          <t>002035</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>九泰行业优选灵活配置混合C</t>
+          <t>安信平稳增长混合C</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>0.06</t>
+          <t>0.02</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>51.13</t>
+          <t>55.64</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>1.38</t>
+          <t>3.76</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
@@ -2717,7 +2201,7 @@
         </is>
       </c>
       <c r="H11" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -2731,7 +2215,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H9"/>
+  <dimension ref="A1:H23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2752,7 +2236,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金规模</t>
+          <t>基金金额</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -2782,36 +2266,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>012421</t>
+          <t>000520</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>华夏优加生活混合A</t>
+          <t>上银新兴价值成长混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>9.41</t>
+          <t>5.72</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>91.45</t>
+          <t>72.69</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>4.87</t>
+          <t>4.39</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.4583</t>
+          <t>0.2511</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -2820,36 +2304,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>005888</t>
+          <t>519673</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>华夏新兴消费混合A</t>
+          <t>银河康乐股票</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>8.87</t>
+          <t>5.14</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>91.07</t>
+          <t>81.88</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>3.87</t>
+          <t>2.82</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.3433</t>
+          <t>0.1449</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4">
@@ -2858,36 +2342,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>005889</t>
+          <t>010874</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>华夏新兴消费混合C</t>
+          <t>泰康品质生活混合A</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>6.39</t>
+          <t>3.81</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>91.07</t>
+          <t>84.84</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>3.87</t>
+          <t>3.62</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.2473</t>
+          <t>0.1379</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5">
@@ -2896,36 +2380,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>002938</t>
+          <t>004138</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>中银证券健康产业灵活配置混合</t>
+          <t>上银鑫达灵活配置混合</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2.86</t>
+          <t>3.13</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>92.07</t>
+          <t>74.50</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>4.28</t>
+          <t>4.23</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.1224</t>
+          <t>0.1324</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6">
@@ -2934,36 +2418,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>004189</t>
+          <t>000006</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>华商消费行业股票</t>
+          <t>西部利得量化成长混合A</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>0.33</t>
+          <t>13.38</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>82.38</t>
+          <t>89.25</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>3.59</t>
+          <t>0.85</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.0118</t>
+          <t>0.1137</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7">
@@ -2972,36 +2456,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>012422</t>
+          <t>005014</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>华夏优加生活混合C</t>
+          <t>泰康景泰回报混合A</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>0.18</t>
+          <t>5.89</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>91.45</t>
+          <t>36.34</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>4.87</t>
+          <t>1.85</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.0088</t>
+          <t>0.1090</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8">
@@ -3010,36 +2494,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>004913</t>
+          <t>007393</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>中银证券聚瑞混合A</t>
+          <t>上银未来生活灵活配置混合</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>0.08</t>
+          <t>2.23</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>41.40</t>
+          <t>69.66</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>4.45</t>
+          <t>2.79</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.0036</t>
+          <t>0.0622</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9">
@@ -3048,36 +2532,568 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>004914</t>
+          <t>000547</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>中银证券聚瑞混合C</t>
+          <t>建信健康民生混合</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>0.05</t>
+          <t>1.59</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>41.40</t>
+          <t>73.81</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>4.45</t>
+          <t>3.82</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0.0022</t>
+          <t>0.0607</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>2</v>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>009899</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>上银内需增长股票</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>87.26</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.08</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0510</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>010875</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>泰康品质生活混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>84.84</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.62</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0409</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>004249</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>安信中国制造2025沪港深灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>80.42</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0298</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>004393</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>安信合作创新主题沪港深灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>76.71</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0232</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>009849</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>安信稳健聚申一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>36.24</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0181</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>005015</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>泰康景泰回报混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>36.34</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>1.85</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0155</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>006818</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>安信盈利驱动股票A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>82.90</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.82</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0138</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>002585</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>建信兴利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>57.14</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.09</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0109</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>006819</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>安信盈利驱动股票C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>82.90</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.82</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0057</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>750005</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>安信平稳增长混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>53.58</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0039</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>002588</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>博时中证银联智惠大数据100指数A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>93.01</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0023</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>011228</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>西部利得量化成长混合C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>89.25</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0023</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>002035</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>安信平稳增长混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>53.58</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>004416</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>博时中证银联智惠大数据100指数C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>93.01</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0001</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -3091,7 +3107,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3102,17 +3118,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -3122,14 +3158,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>8</v>
-      </c>
-      <c r="D2" t="n">
-        <v>1.2</v>
+          <t>164205</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>天弘文化新兴产业股票</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>6.61</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.85</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>8.51</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.5625</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -3138,94 +3196,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>10</v>
-      </c>
-      <c r="D3" t="n">
-        <v>3.12</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>3</v>
-      </c>
-      <c r="D4" t="n">
-        <v>2.01</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>4</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.9399999999999999</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>10</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0.7</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>22</v>
-      </c>
-      <c r="D7" t="n">
-        <v>1.23</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>2020-Q4</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>2</v>
-      </c>
-      <c r="D8" t="n">
-        <v>0.57</v>
+          <t>008547</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>博道安远6个月定期开放混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>21.60</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0055</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/上证主板/603180-金牌厨柜.xlsx
+++ b/数据整理/stocks/A股/上证主板/603180-金牌厨柜.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D2" t="n">
-        <v>1.2</v>
+        <v>0.96</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D3" t="n">
-        <v>3.12</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="D4" t="n">
-        <v>2.01</v>
+        <v>3.12</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9399999999999999</v>
+        <v>2.01</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="D6" t="n">
-        <v>0.7</v>
+        <v>0.9399999999999999</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="D7" t="n">
-        <v>1.23</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>22</v>
+      </c>
+      <c r="D8" t="n">
+        <v>1.23</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>2</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>0.57</v>
       </c>
     </row>
@@ -600,6 +617,328 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>012421</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华夏优加生活混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>7.38</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>90.53</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.06</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.3734</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>005888</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华夏新兴消费混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>7.31</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>89.64</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.3019</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>005889</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华夏新兴消费混合C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>4.90</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>89.64</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.2024</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>013109</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华夏优势价值一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1.87</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>67.65</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0561</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>165531</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>信诚多策略灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>72.58</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.20</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0083</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>012422</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>华夏优加生活混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>90.53</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.06</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0071</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>013110</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>华夏优势价值一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>67.65</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0063</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -959,7 +1298,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1395,7 +1734,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1565,7 +1904,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1773,7 +2112,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2209,7 +2548,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3101,7 +3440,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/上证主板/603180-金牌厨柜.xlsx
+++ b/数据整理/stocks/A股/上证主板/603180-金牌厨柜.xlsx
@@ -7,14 +7,15 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -458,7 +459,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,14 +490,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D2" t="n">
-        <v>0.96</v>
+        <v>1.81</v>
       </c>
     </row>
     <row r="3">
@@ -505,14 +506,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D3" t="n">
-        <v>1.2</v>
+        <v>0.96</v>
       </c>
     </row>
     <row r="4">
@@ -521,14 +522,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D4" t="n">
-        <v>3.12</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="5">
@@ -537,14 +538,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="D5" t="n">
-        <v>2.01</v>
+        <v>3.12</v>
       </c>
     </row>
     <row r="6">
@@ -553,14 +554,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D6" t="n">
-        <v>0.9399999999999999</v>
+        <v>2.01</v>
       </c>
     </row>
     <row r="7">
@@ -569,14 +570,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="D7" t="n">
-        <v>0.7</v>
+        <v>0.9399999999999999</v>
       </c>
     </row>
     <row r="8">
@@ -585,14 +586,14 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="D8" t="n">
-        <v>1.23</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="9">
@@ -601,14 +602,162 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>22</v>
+      </c>
+      <c r="D9" t="n">
+        <v>1.23</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C9" t="n">
+      <c r="C10" t="n">
         <v>2</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D10" t="n">
         <v>0.57</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>164205</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>天弘文化新兴产业股票</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>6.61</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.85</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>8.51</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.5625</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>008547</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>博道安远6个月定期开放混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>21.60</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0055</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -617,6 +766,480 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>010628</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发瑞轩三个月定期开放混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>27.69</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>84.10</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.66</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.7366</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>012421</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华夏优加生活混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>8.01</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>88.08</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.90</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.3925</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>005888</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华夏新兴消费混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>7.99</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>88.30</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.14</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.3308</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>005889</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华夏新兴消费混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>4.95</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>88.30</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.14</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.2049</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>013109</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>华夏优势价值一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>1.94</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>81.35</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0625</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>012334</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>上银慧尚6个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>22.23</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0242</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>008178</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>同泰慧盈混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>91.35</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.58</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0199</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>012422</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>华夏优加生活混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>88.08</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.90</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0157</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>008179</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>同泰慧盈混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>91.35</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.58</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0147</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>013110</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>华夏优势价值一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>81.35</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0071</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>012335</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>上银慧尚6个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>22.23</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0011</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -938,7 +1561,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1298,7 +1921,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1734,7 +2357,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1904,7 +2527,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2112,7 +2735,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2548,7 +3171,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3438,136 +4061,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>164205</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>天弘文化新兴产业股票</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>6.61</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>94.85</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>8.51</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.5625</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>008547</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>博道安远6个月定期开放混合</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>0.54</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>21.60</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>1.01</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.0055</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>9</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
 </file>